--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T12:25:09+00:00</t>
+    <t>2021-09-13T09:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T09:25:05+00:00</t>
+    <t>2021-09-14T08:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T08:10:14+00:00</t>
+    <t>2021-09-14T08:11:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T08:11:10+00:00</t>
+    <t>2021-09-14T08:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,7 +96,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
   </si>
   <si>
     <t>Level</t>
@@ -129,13 +129,19 @@
     <t>PACKOF</t>
   </si>
   <si>
-    <t>Packaged Form of</t>
+    <t>Is a Packaged Form of</t>
   </si>
   <si>
     <t>PHARMOF</t>
   </si>
   <si>
-    <t>Is the Pharmaceutical product of</t>
+    <t>Is a Pharmaceutical product of</t>
+  </si>
+  <si>
+    <t>VIRTUALPACKOF</t>
+  </si>
+  <si>
+    <t>Is a Virtual Package Form of</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -498,6 +504,20 @@
         <v>40</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T08:27:49+00:00</t>
+    <t>2021-10-08T08:43:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,7 +96,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>5</t>
+    <t>7</t>
   </si>
   <si>
     <t>Level</t>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Is a Virtual Package Form of</t>
+  </si>
+  <si>
+    <t>VPHARMOF</t>
+  </si>
+  <si>
+    <t>HASG</t>
   </si>
 </sst>
 </file>
@@ -428,7 +434,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -518,6 +524,34 @@
         <v>42</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T08:43:20+00:00</t>
+    <t>2021-10-08T09:20:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T09:20:52+00:00</t>
+    <t>2021-10-08T09:56:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>HASG</t>
+  </si>
+  <si>
+    <t>Is a from a virtual pharmaceutical product group</t>
   </si>
 </sst>
 </file>
@@ -546,10 +549,10 @@
         <v>44</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T09:56:27+00:00</t>
+    <t>2021-10-08T10:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T10:16:10+00:00</t>
+    <t>2021-10-08T11:07:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T11:07:42+00:00</t>
+    <t>2021-10-08T17:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T17:20:30+00:00</t>
+    <t>2022-01-04T09:41:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T09:41:13+00:00</t>
+    <t>2022-01-04T09:53:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T09:53:47+00:00</t>
+    <t>2022-01-04T10:47:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T10:47:37+00:00</t>
+    <t>2022-01-04T11:54:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T11:54:28+00:00</t>
+    <t>2022-01-04T12:00:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T12:00:37+00:00</t>
+    <t>2022-01-05T09:45:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T09:45:00+00:00</t>
+    <t>2022-01-05T19:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T19:33:35+00:00</t>
+    <t>2022-01-06T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-06T17:45:57+00:00</t>
+    <t>2022-01-25T16:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T16:57:24+00:00</t>
+    <t>2022-01-25T17:05:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:05:46+00:00</t>
+    <t>2022-01-25T17:18:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:18:16+00:00</t>
+    <t>2022-01-25T17:23:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:23:33+00:00</t>
+    <t>2022-01-25T17:25:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:25:01+00:00</t>
+    <t>2022-01-25T17:31:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:31:33+00:00</t>
+    <t>2022-01-26T09:44:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T09:44:32+00:00</t>
+    <t>2022-01-26T10:23:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T10:23:18+00:00</t>
+    <t>2022-01-26T10:32:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T10:32:28+00:00</t>
+    <t>2022-01-26T15:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T15:09:20+00:00</t>
+    <t>2022-01-26T17:22:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T17:22:48+00:00</t>
+    <t>2022-01-26T17:42:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T17:42:05+00:00</t>
+    <t>2022-01-27T10:33:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T10:33:03+00:00</t>
+    <t>2022-01-27T11:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T11:55:52+00:00</t>
+    <t>2022-01-27T12:11:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T12:11:00+00:00</t>
+    <t>2022-01-27T12:18:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T12:18:33+00:00</t>
+    <t>2022-01-27T13:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:02:02+00:00</t>
+    <t>2022-01-27T13:14:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:14:27+00:00</t>
+    <t>2022-01-27T13:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:16:24+00:00</t>
+    <t>2022-01-27T14:15:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:15:49+00:00</t>
+    <t>2022-01-27T14:24:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:24:59+00:00</t>
+    <t>2022-01-27T14:26:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:26:36+00:00</t>
+    <t>2022-01-27T14:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:37:11+00:00</t>
+    <t>2022-01-27T15:29:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T15:29:00+00:00</t>
+    <t>2022-01-27T15:35:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T15:35:43+00:00</t>
+    <t>2022-01-27T16:48:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T16:48:37+00:00</t>
+    <t>2022-01-27T17:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:34:32+00:00</t>
+    <t>2022-01-27T17:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:42:33+00:00</t>
+    <t>2022-01-27T17:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:55:49+00:00</t>
+    <t>2022-01-28T08:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T08:56:12+00:00</t>
+    <t>2022-01-28T10:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:40:14+00:00</t>
+    <t>2022-01-28T10:43:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:43:57+00:00</t>
+    <t>2022-01-28T10:49:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:49:11+00:00</t>
+    <t>2022-01-28T10:53:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:53:33+00:00</t>
+    <t>2022-02-02T15:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-rel-med-cs.xlsx
+++ b/CodeSystem-rel-med-cs.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T15:40:24+00:00</t>
+    <t>2022-02-03T09:51:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
